--- a/other/excel/Pricing.xlsx
+++ b/other/excel/Pricing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deborahdore/Desktop/number-recognition-on-aws/other/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2164C81-7A62-EF44-9A11-B2D0E9930813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB18F78-9CE2-8C4B-AC0F-F56E3D2D6768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{09540BCE-B5AF-E04A-8ACC-F39B5A32A7DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{09540BCE-B5AF-E04A-8ACC-F39B5A32A7DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>EC2 Instance</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>t2.medium</t>
-  </si>
-  <si>
-    <t>t2.large</t>
   </si>
   <si>
     <t>Average number of instances used</t>
@@ -477,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A11EA-8D1F-B942-92A7-3FE208F2A74C}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -502,31 +499,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -537,15 +534,15 @@
         <v>2.3E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <f>B2*C2</f>
-        <v>0.13800000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E2" s="2">
         <f>D2*720</f>
-        <v>99.360000000000014</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="F2" s="2">
         <v>0.29199999999999998</v>
@@ -558,11 +555,11 @@
       </c>
       <c r="I2" s="2">
         <f>H2+(F2*4)+E2+G2</f>
-        <v>100.70800000000001</v>
+        <v>67.587999999999994</v>
       </c>
       <c r="J2" s="2">
         <f>I2*12</f>
-        <v>1208.4960000000001</v>
+        <v>811.05599999999993</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -576,11 +573,11 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">B3*C3</f>
+        <f t="shared" ref="D3" si="0">B3*C3</f>
         <v>0.18559999999999999</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E4" si="1">D3*720</f>
+        <f t="shared" ref="E3" si="1">D3*720</f>
         <v>133.63200000000001</v>
       </c>
       <c r="F3" s="2">
@@ -597,44 +594,8 @@
         <v>134.97999999999999</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J4" si="2">I3*12</f>
+        <f t="shared" ref="J3" si="2">I3*12</f>
         <v>1619.7599999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>9.2799999999999994E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.27839999999999998</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>200.44799999999998</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I3:I4" si="3">H4+(F4*4)+E4+G4</f>
-        <v>201.79599999999996</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="2"/>
-        <v>2421.5519999999997</v>
       </c>
     </row>
   </sheetData>
